--- a/pl_215.xlsx
+++ b/pl_215.xlsx
@@ -2276,13 +2276,13 @@
     <t>---</t>
   </si>
   <si>
+    <t>id_parlamentar</t>
+  </si>
+  <si>
+    <t>Sigla</t>
+  </si>
+  <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>id_parlamentar</t>
-  </si>
-  <si>
-    <t>Sigla</t>
   </si>
   <si>
     <t>y</t>
@@ -2352,7 +2352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2371,7 +2371,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2675,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,19 +2685,19 @@
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="54.28515625" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s">
         <v>246</v>
       </c>
       <c r="C1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>268</v>
@@ -2706,16 +2705,16 @@
       <c r="E1" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>247</v>
@@ -2730,15 +2729,15 @@
         <v>77</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>248</v>
@@ -2753,15 +2752,15 @@
         <v>77</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>46</v>
@@ -2776,15 +2775,15 @@
         <v>78</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>47</v>
@@ -2799,15 +2798,15 @@
         <v>82</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>48</v>
@@ -2822,15 +2821,15 @@
         <v>86</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>49</v>
@@ -2845,15 +2844,15 @@
         <v>90</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>50</v>
@@ -2868,15 +2867,15 @@
         <v>94</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="G8" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>249</v>
@@ -2891,15 +2890,15 @@
         <v>98</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="G9" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>250</v>
@@ -2914,15 +2913,15 @@
         <v>102</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G10" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>51</v>
@@ -2937,15 +2936,15 @@
         <v>106</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>52</v>
@@ -2960,15 +2959,15 @@
         <v>110</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="G12" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>53</v>
@@ -2983,15 +2982,15 @@
         <v>114</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="G13" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>252</v>
@@ -3006,15 +3005,15 @@
         <v>118</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="G14" s="5">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>54</v>
@@ -3029,15 +3028,15 @@
         <v>122</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="G15" s="5">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>251</v>
@@ -3052,15 +3051,15 @@
         <v>126</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="G16" s="5">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>253</v>
@@ -3075,15 +3074,15 @@
         <v>269</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="G17" s="5">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>55</v>
@@ -3098,15 +3097,15 @@
         <v>269</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G18" s="5">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>56</v>
@@ -3121,15 +3120,15 @@
         <v>269</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G19" s="5">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>254</v>
@@ -3144,15 +3143,15 @@
         <v>269</v>
       </c>
       <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="G20" s="5">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>240</v>
@@ -3167,15 +3166,15 @@
         <v>139</v>
       </c>
       <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G21" s="5">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>57</v>
@@ -3190,15 +3189,15 @@
         <v>269</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G22" s="5">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>255</v>
@@ -3213,15 +3212,15 @@
         <v>269</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="G23" s="5">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>58</v>
@@ -3236,15 +3235,15 @@
         <v>269</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="G24" s="5">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>256</v>
@@ -3259,15 +3258,15 @@
         <v>269</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="G25" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>59</v>
@@ -3282,15 +3281,15 @@
         <v>154</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="G26" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>60</v>
@@ -3305,15 +3304,15 @@
         <v>158</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="G27" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>257</v>
@@ -3328,15 +3327,15 @@
         <v>161</v>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="G28" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>61</v>
@@ -3351,15 +3350,15 @@
         <v>164</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="G29" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>62</v>
@@ -3374,15 +3373,15 @@
         <v>168</v>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="G30" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>63</v>
@@ -3397,15 +3396,15 @@
         <v>172</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="G31" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>64</v>
@@ -3420,15 +3419,15 @@
         <v>176</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G32" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>258</v>
@@ -3443,15 +3442,15 @@
         <v>180</v>
       </c>
       <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="G33" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>259</v>
@@ -3466,15 +3465,15 @@
         <v>77</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="G34" s="5">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>65</v>
@@ -3489,15 +3488,15 @@
         <v>187</v>
       </c>
       <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="G35" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>66</v>
@@ -3512,15 +3511,15 @@
         <v>191</v>
       </c>
       <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="G36" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>67</v>
@@ -3535,15 +3534,15 @@
         <v>195</v>
       </c>
       <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="G37" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>260</v>
@@ -3558,15 +3557,15 @@
         <v>199</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="G38" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>261</v>
@@ -3581,15 +3580,15 @@
         <v>203</v>
       </c>
       <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G39" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>68</v>
@@ -3604,15 +3603,15 @@
         <v>207</v>
       </c>
       <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="G40" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>69</v>
@@ -3627,15 +3626,15 @@
         <v>209</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G41" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>70</v>
@@ -3650,15 +3649,15 @@
         <v>212</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="G42" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>71</v>
@@ -3673,15 +3672,15 @@
         <v>216</v>
       </c>
       <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="G43" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>72</v>
@@ -3696,15 +3695,15 @@
         <v>220</v>
       </c>
       <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="G44" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>73</v>
@@ -3719,15 +3718,15 @@
         <v>224</v>
       </c>
       <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="G45" s="5">
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>74</v>
@@ -3742,15 +3741,15 @@
         <v>228</v>
       </c>
       <c r="F46" s="4">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="G46" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>75</v>
@@ -3765,15 +3764,15 @@
         <v>232</v>
       </c>
       <c r="F47" s="4">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="G47" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>76</v>
@@ -3788,15 +3787,15 @@
         <v>236</v>
       </c>
       <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="G48" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>242</v>
@@ -3811,15 +3810,15 @@
         <v>244</v>
       </c>
       <c r="F49" s="4">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="G49" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>241</v>
@@ -3834,15 +3833,15 @@
         <v>244</v>
       </c>
       <c r="F50" s="4">
-        <v>0</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="G50" s="5">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>79</v>
@@ -3857,15 +3856,15 @@
         <v>81</v>
       </c>
       <c r="F51" s="4">
-        <v>0</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="G51" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>83</v>
@@ -3880,15 +3879,15 @@
         <v>85</v>
       </c>
       <c r="F52" s="4">
-        <v>0</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="G52" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>87</v>
@@ -3903,15 +3902,15 @@
         <v>89</v>
       </c>
       <c r="F53" s="4">
-        <v>0</v>
-      </c>
-      <c r="G53" s="4">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="G53" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>91</v>
@@ -3926,15 +3925,15 @@
         <v>93</v>
       </c>
       <c r="F54" s="4">
-        <v>0</v>
-      </c>
-      <c r="G54" s="4">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="G54" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>95</v>
@@ -3949,15 +3948,15 @@
         <v>97</v>
       </c>
       <c r="F55" s="4">
-        <v>0</v>
-      </c>
-      <c r="G55" s="4">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="G55" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>99</v>
@@ -3972,15 +3971,15 @@
         <v>101</v>
       </c>
       <c r="F56" s="4">
-        <v>0</v>
-      </c>
-      <c r="G56" s="4">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="G56" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>103</v>
@@ -3995,15 +3994,15 @@
         <v>105</v>
       </c>
       <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="G57" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>107</v>
@@ -4018,15 +4017,15 @@
         <v>109</v>
       </c>
       <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="4">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="G58" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>111</v>
@@ -4041,15 +4040,15 @@
         <v>113</v>
       </c>
       <c r="F59" s="4">
-        <v>0</v>
-      </c>
-      <c r="G59" s="4">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="G59" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>115</v>
@@ -4064,15 +4063,15 @@
         <v>117</v>
       </c>
       <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="G60" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>119</v>
@@ -4087,15 +4086,15 @@
         <v>121</v>
       </c>
       <c r="F61" s="4">
-        <v>0</v>
-      </c>
-      <c r="G61" s="4">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="G61" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>123</v>
@@ -4110,15 +4109,15 @@
         <v>125</v>
       </c>
       <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="G62" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>265</v>
@@ -4133,15 +4132,15 @@
         <v>128</v>
       </c>
       <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="G63" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>266</v>
@@ -4156,15 +4155,15 @@
         <v>77</v>
       </c>
       <c r="F64" s="4">
-        <v>0</v>
-      </c>
-      <c r="G64" s="4">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="G64" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>130</v>
@@ -4179,15 +4178,15 @@
         <v>132</v>
       </c>
       <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="G65" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>133</v>
@@ -4202,15 +4201,15 @@
         <v>135</v>
       </c>
       <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="4">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="G66" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>136</v>
@@ -4225,15 +4224,15 @@
         <v>138</v>
       </c>
       <c r="F67" s="4">
-        <v>0</v>
-      </c>
-      <c r="G67" s="4">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="G67" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>140</v>
@@ -4248,15 +4247,15 @@
         <v>142</v>
       </c>
       <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="4">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="G68" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>143</v>
@@ -4271,15 +4270,15 @@
         <v>145</v>
       </c>
       <c r="F69" s="4">
-        <v>0</v>
-      </c>
-      <c r="G69" s="4">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="G69" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>267</v>
@@ -4294,15 +4293,15 @@
         <v>147</v>
       </c>
       <c r="F70" s="4">
-        <v>0</v>
-      </c>
-      <c r="G70" s="4">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="G70" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>148</v>
@@ -4317,15 +4316,15 @@
         <v>150</v>
       </c>
       <c r="F71" s="4">
-        <v>0</v>
-      </c>
-      <c r="G71" s="4">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="G71" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>151</v>
@@ -4340,15 +4339,15 @@
         <v>153</v>
       </c>
       <c r="F72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="4">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="G72" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>155</v>
@@ -4363,15 +4362,15 @@
         <v>157</v>
       </c>
       <c r="F73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="G73" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>264</v>
@@ -4386,15 +4385,15 @@
         <v>160</v>
       </c>
       <c r="F74" s="4">
-        <v>0</v>
-      </c>
-      <c r="G74" s="4">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="G74" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>263</v>
@@ -4409,15 +4408,15 @@
         <v>163</v>
       </c>
       <c r="F75" s="4">
-        <v>0</v>
-      </c>
-      <c r="G75" s="4">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="G75" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>165</v>
@@ -4432,15 +4431,15 @@
         <v>167</v>
       </c>
       <c r="F76" s="4">
-        <v>0</v>
-      </c>
-      <c r="G76" s="4">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="G76" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>169</v>
@@ -4455,15 +4454,15 @@
         <v>171</v>
       </c>
       <c r="F77" s="4">
-        <v>0</v>
-      </c>
-      <c r="G77" s="4">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="G77" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>173</v>
@@ -4478,15 +4477,15 @@
         <v>175</v>
       </c>
       <c r="F78" s="4">
-        <v>0</v>
-      </c>
-      <c r="G78" s="4">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="G78" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>177</v>
@@ -4501,15 +4500,15 @@
         <v>179</v>
       </c>
       <c r="F79" s="4">
-        <v>0</v>
-      </c>
-      <c r="G79" s="4">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="G79" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>181</v>
@@ -4524,15 +4523,15 @@
         <v>183</v>
       </c>
       <c r="F80" s="4">
-        <v>0</v>
-      </c>
-      <c r="G80" s="4">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="G80" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>184</v>
@@ -4547,15 +4546,15 @@
         <v>186</v>
       </c>
       <c r="F81" s="4">
-        <v>0</v>
-      </c>
-      <c r="G81" s="4">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="G81" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>188</v>
@@ -4570,15 +4569,15 @@
         <v>190</v>
       </c>
       <c r="F82" s="4">
-        <v>0</v>
-      </c>
-      <c r="G82" s="4">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="G82" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>192</v>
@@ -4593,15 +4592,15 @@
         <v>194</v>
       </c>
       <c r="F83" s="4">
-        <v>0</v>
-      </c>
-      <c r="G83" s="4">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="G83" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>196</v>
@@ -4616,15 +4615,15 @@
         <v>198</v>
       </c>
       <c r="F84" s="4">
-        <v>0</v>
-      </c>
-      <c r="G84" s="4">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="G84" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>200</v>
@@ -4639,15 +4638,15 @@
         <v>202</v>
       </c>
       <c r="F85" s="4">
-        <v>0</v>
-      </c>
-      <c r="G85" s="4">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="G85" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>204</v>
@@ -4662,15 +4661,15 @@
         <v>206</v>
       </c>
       <c r="F86" s="4">
-        <v>0</v>
-      </c>
-      <c r="G86" s="4">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="G86" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>262</v>
@@ -4685,15 +4684,15 @@
         <v>77</v>
       </c>
       <c r="F87" s="4">
-        <v>0</v>
-      </c>
-      <c r="G87" s="4">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="G87" s="7">
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>210</v>
@@ -4708,15 +4707,15 @@
         <v>77</v>
       </c>
       <c r="F88" s="4">
-        <v>0</v>
-      </c>
-      <c r="G88" s="4">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="G88" s="7">
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>213</v>
@@ -4731,15 +4730,15 @@
         <v>215</v>
       </c>
       <c r="F89" s="4">
-        <v>0</v>
-      </c>
-      <c r="G89" s="4">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="G89" s="7">
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>217</v>
@@ -4754,15 +4753,15 @@
         <v>219</v>
       </c>
       <c r="F90" s="4">
-        <v>0</v>
-      </c>
-      <c r="G90" s="4">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="G90" s="7">
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>221</v>
@@ -4777,15 +4776,15 @@
         <v>223</v>
       </c>
       <c r="F91" s="4">
-        <v>0</v>
-      </c>
-      <c r="G91" s="4">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="G91" s="7">
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>225</v>
@@ -4800,15 +4799,15 @@
         <v>227</v>
       </c>
       <c r="F92" s="4">
-        <v>0</v>
-      </c>
-      <c r="G92" s="4">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="G92" s="7">
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>229</v>
@@ -4823,15 +4822,15 @@
         <v>231</v>
       </c>
       <c r="F93" s="4">
-        <v>0</v>
-      </c>
-      <c r="G93" s="4">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="G93" s="7">
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>233</v>
@@ -4846,15 +4845,15 @@
         <v>235</v>
       </c>
       <c r="F94" s="4">
-        <v>0</v>
-      </c>
-      <c r="G94" s="4">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="G94" s="7">
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>237</v>
@@ -4869,10 +4868,10 @@
         <v>239</v>
       </c>
       <c r="F95" s="4">
-        <v>0</v>
-      </c>
-      <c r="G95" s="4">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="G95" s="7">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/pl_215.xlsx
+++ b/pl_215.xlsx
@@ -15,12 +15,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="274">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="272">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">AVANTE </t>
     </r>
@@ -30,6 +31,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>DC</t>
     </r>
@@ -39,6 +41,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">DEM </t>
     </r>
@@ -48,6 +51,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">DEM </t>
     </r>
@@ -57,6 +61,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">DEM </t>
     </r>
@@ -66,6 +71,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">DEM </t>
     </r>
@@ -75,6 +81,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">DEM </t>
     </r>
@@ -84,6 +91,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">DEM </t>
     </r>
@@ -93,6 +101,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">MDB </t>
     </r>
@@ -102,6 +111,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">MDB </t>
     </r>
@@ -111,6 +121,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">MDB </t>
     </r>
@@ -120,6 +131,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">MDB </t>
     </r>
@@ -129,6 +141,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PATRI </t>
     </r>
@@ -138,6 +151,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PC DO B </t>
     </r>
@@ -147,6 +161,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PC DO B </t>
     </r>
@@ -156,6 +171,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PODE</t>
     </r>
@@ -165,6 +181,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PP</t>
     </r>
@@ -174,6 +191,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PP</t>
     </r>
@@ -183,6 +201,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PP</t>
     </r>
@@ -192,6 +211,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PPS </t>
     </r>
@@ -201,6 +221,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PPS </t>
     </r>
@@ -210,6 +231,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PPS </t>
     </r>
@@ -219,6 +241,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PR</t>
     </r>
@@ -228,6 +251,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PR</t>
     </r>
@@ -237,6 +261,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PR</t>
     </r>
@@ -246,6 +271,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PRB </t>
     </r>
@@ -255,6 +281,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PRB </t>
     </r>
@@ -264,6 +291,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PRB </t>
     </r>
@@ -273,6 +301,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PRB </t>
     </r>
@@ -282,6 +311,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PRB </t>
     </r>
@@ -291,6 +321,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PROS </t>
     </r>
@@ -300,6 +331,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PRP </t>
     </r>
@@ -309,6 +341,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PSB </t>
     </r>
@@ -318,6 +351,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PSB </t>
     </r>
@@ -327,6 +361,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PSB </t>
     </r>
@@ -336,6 +371,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PSB </t>
     </r>
@@ -345,6 +381,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PSB </t>
     </r>
@@ -354,6 +391,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PSB </t>
     </r>
@@ -363,6 +401,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PSB </t>
     </r>
@@ -372,6 +411,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PSB </t>
     </r>
@@ -381,6 +421,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PSB </t>
     </r>
@@ -390,6 +431,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PSB </t>
     </r>
@@ -399,6 +441,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PSB </t>
     </r>
@@ -408,6 +451,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PSC </t>
     </r>
@@ -417,6 +461,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">PSD </t>
     </r>
@@ -426,6 +471,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSD</t>
     </r>
@@ -435,6 +481,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">ALDO DEMARCHI </t>
     </r>
@@ -444,6 +491,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">EDMIR CHEDID </t>
     </r>
@@ -453,6 +501,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">ESTEVAM GALVAO </t>
     </r>
@@ -462,6 +511,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">MILTON LEITE FILHO </t>
     </r>
@@ -471,6 +521,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>RODRIGO MORAES</t>
     </r>
@@ -480,6 +531,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>JOOJI HATO</t>
     </r>
@@ -489,6 +541,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">JORGE CARUSO </t>
     </r>
@@ -498,6 +551,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>LEO OLIVEIRA</t>
     </r>
@@ -507,6 +561,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>GUSTAVO PETTA</t>
     </r>
@@ -516,6 +571,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">ANTONIO SALIM CURIATI </t>
     </r>
@@ -525,6 +581,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>CORONEL TELHADA</t>
     </r>
@@ -534,6 +591,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>FERNANDO CURY</t>
     </r>
@@ -543,6 +601,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>VITOR SAPIENZA</t>
     </r>
@@ -552,6 +611,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">MARCOS DAMASIO </t>
     </r>
@@ -561,6 +621,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>RICARDO MADALENA</t>
     </r>
@@ -570,6 +631,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">JORGE WILSON </t>
     </r>
@@ -579,6 +641,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">MILTON VIEIRA </t>
     </r>
@@ -588,6 +651,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">SEBASTIAO SANTOS </t>
     </r>
@@ -597,6 +661,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>WELLINGTON MOURA</t>
     </r>
@@ -606,6 +671,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">ABELARDO CAMARINHA </t>
     </r>
@@ -615,6 +681,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">ADILSON ROSSI </t>
     </r>
@@ -624,6 +691,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>BARROS MUNHOZ</t>
     </r>
@@ -633,6 +701,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>ED THOMAS</t>
     </r>
@@ -642,6 +711,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">GIL LANCASTER </t>
     </r>
@@ -651,6 +721,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">JOAO CARAMEZ </t>
     </r>
@@ -660,6 +731,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">ORLANDO BOLCONE </t>
     </r>
@@ -669,6 +741,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">RAFAEL SILVA </t>
     </r>
@@ -678,6 +751,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>ROBERTO ENGLER</t>
     </r>
@@ -687,15 +761,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">L CELSO B. NASCIMENTO </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>CEZINHA DE MADUREIRA</t>
     </r>
@@ -705,15 +771,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
-      </rPr>
-      <t>L CORONEL CAMILO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>---</t>
     </r>
@@ -723,6 +781,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -732,6 +791,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>ANALICE FERNANDES</t>
     </r>
@@ -741,6 +801,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -750,6 +811,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -759,6 +821,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -768,6 +831,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>CARLAO PIGNATARI</t>
     </r>
@@ -777,6 +841,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -786,6 +851,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -795,6 +861,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -804,6 +871,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>CARLOS BEZERRA JR.</t>
     </r>
@@ -813,6 +881,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -822,6 +891,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -831,6 +901,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -840,6 +911,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>CASSIO DE CASTRO NAVARRO</t>
     </r>
@@ -849,6 +921,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -858,6 +931,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -867,6 +941,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -876,6 +951,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>CAUE MACRIS</t>
     </r>
@@ -885,6 +961,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -894,6 +971,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Licenciado</t>
     </r>
@@ -903,6 +981,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -912,6 +991,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>CELIA LEAO</t>
     </r>
@@ -921,6 +1001,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -930,6 +1011,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -939,6 +1021,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -948,6 +1031,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>CELINO CARDOSO</t>
     </r>
@@ -957,6 +1041,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -966,6 +1051,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -975,6 +1061,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Licenciado</t>
     </r>
@@ -984,6 +1071,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>FERNANDO CAPEZ</t>
     </r>
@@ -993,6 +1081,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -1002,6 +1091,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1011,6 +1101,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1020,6 +1111,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>GILMAR GIMENES</t>
     </r>
@@ -1029,6 +1121,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -1038,6 +1131,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1047,6 +1141,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1056,6 +1151,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>HELIO NISHIMOTO</t>
     </r>
@@ -1065,6 +1161,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -1074,6 +1171,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1083,6 +1181,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>---</t>
     </r>
@@ -1092,6 +1191,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>MARCIO CAMARGO</t>
     </r>
@@ -1101,6 +1201,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -1110,6 +1211,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1119,6 +1221,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1128,6 +1231,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>MARCOS ZERBINI</t>
     </r>
@@ -1137,6 +1241,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -1146,6 +1251,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1155,6 +1261,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1164,6 +1271,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -1173,6 +1281,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Nao</t>
     </r>
@@ -1182,6 +1291,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -1191,6 +1301,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PEDRO TOBIAS</t>
     </r>
@@ -1200,6 +1311,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -1209,6 +1321,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1218,6 +1331,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>RAMALHO DACONSTRUCAO</t>
     </r>
@@ -1227,6 +1341,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -1236,6 +1351,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1245,6 +1361,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>ROBERTO MASSAFERA</t>
     </r>
@@ -1254,6 +1371,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -1263,6 +1381,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1272,6 +1391,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1281,6 +1401,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>VAZ DE LIMA</t>
     </r>
@@ -1290,6 +1411,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -1299,6 +1421,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1308,6 +1431,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>WELSON GASPARINI</t>
     </r>
@@ -1317,6 +1441,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSDB</t>
     </r>
@@ -1326,6 +1451,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1335,6 +1461,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSOL</t>
     </r>
@@ -1344,6 +1471,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Nao</t>
     </r>
@@ -1353,6 +1481,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>JOAO PAULO RILLO</t>
     </r>
@@ -1362,6 +1491,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSOL</t>
     </r>
@@ -1371,6 +1501,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Nao</t>
     </r>
@@ -1380,6 +1511,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>RAUL MARCELO</t>
     </r>
@@ -1389,6 +1521,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PSOL</t>
     </r>
@@ -1398,6 +1531,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1407,6 +1541,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1416,6 +1551,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>ALENCAR LULA SANTANA</t>
     </r>
@@ -1425,6 +1561,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PT</t>
     </r>
@@ -1434,6 +1571,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1443,6 +1581,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>---</t>
     </r>
@@ -1452,6 +1591,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PT</t>
     </r>
@@ -1461,6 +1601,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1470,6 +1611,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1479,6 +1621,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PT</t>
     </r>
@@ -1488,6 +1631,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1497,6 +1641,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1506,6 +1651,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>CARLOS NEDER LULA</t>
     </r>
@@ -1515,6 +1661,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PT</t>
     </r>
@@ -1524,6 +1671,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1533,6 +1681,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1542,6 +1691,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>ENIO LULA TATTO</t>
     </r>
@@ -1551,6 +1701,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PT</t>
     </r>
@@ -1560,6 +1711,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1569,6 +1721,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1578,6 +1731,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>GERALDO CRUZ LULA</t>
     </r>
@@ -1587,6 +1741,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PT</t>
     </r>
@@ -1596,6 +1751,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1605,6 +1761,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1614,6 +1771,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>JOSE AMERICO LULA</t>
     </r>
@@ -1623,6 +1781,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PT</t>
     </r>
@@ -1632,6 +1791,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Nao</t>
     </r>
@@ -1641,6 +1801,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1650,6 +1811,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>JOSE ZICO LULA PRADO</t>
     </r>
@@ -1659,6 +1821,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PT</t>
     </r>
@@ -1668,6 +1831,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1677,6 +1841,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>LUIZ FERNANDO LULA</t>
     </r>
@@ -1686,6 +1851,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PT</t>
     </r>
@@ -1695,6 +1861,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1704,6 +1871,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1713,6 +1881,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>LUIZ TURCO LULA</t>
     </r>
@@ -1722,6 +1891,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PT</t>
     </r>
@@ -1731,6 +1901,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1740,6 +1911,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1749,6 +1921,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>MARCIA LULA LIA</t>
     </r>
@@ -1758,6 +1931,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PT</t>
     </r>
@@ -1767,6 +1941,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1776,6 +1951,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1785,6 +1961,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>MARCOS LULA MARTINS</t>
     </r>
@@ -1794,6 +1971,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PT</t>
     </r>
@@ -1803,6 +1981,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1812,6 +1991,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Nao</t>
     </r>
@@ -1821,6 +2001,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PROF AURIEL LULA</t>
     </r>
@@ -1830,6 +2011,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PT</t>
     </r>
@@ -1839,6 +2021,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1848,6 +2031,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1857,6 +2041,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>TEONILIO BARBA LULA</t>
     </r>
@@ -1866,6 +2051,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PT</t>
     </r>
@@ -1875,6 +2061,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Abstencao</t>
     </r>
@@ -1884,6 +2071,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -1893,6 +2081,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PTB</t>
     </r>
@@ -1902,6 +2091,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1911,6 +2101,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>LUIZ CARLOS GONDIM</t>
     </r>
@@ -1920,6 +2111,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PTB</t>
     </r>
@@ -1929,6 +2121,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1938,6 +2131,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>ROQUE BARBIERE</t>
     </r>
@@ -1947,6 +2141,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PTB</t>
     </r>
@@ -1956,6 +2151,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>---</t>
     </r>
@@ -1965,6 +2161,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -1974,6 +2171,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>AFONSO LOBATO</t>
     </r>
@@ -1983,6 +2181,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PV</t>
     </r>
@@ -1992,6 +2191,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -2001,6 +2201,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -2010,6 +2211,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>CHICO SARDELLI</t>
     </r>
@@ -2019,6 +2221,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PV</t>
     </r>
@@ -2028,6 +2231,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -2037,6 +2241,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -2046,6 +2251,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>DOUTOR ULYSSES</t>
     </r>
@@ -2055,6 +2261,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PV</t>
     </r>
@@ -2064,6 +2271,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -2073,6 +2281,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -2082,6 +2291,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>EDSON GIRIBONI</t>
     </r>
@@ -2091,6 +2301,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PV</t>
     </r>
@@ -2100,6 +2311,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -2109,6 +2321,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -2118,15 +2331,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
-      </rPr>
-      <t>L REINALDO ALGUZ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PV</t>
     </r>
@@ -2136,6 +2341,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -2145,6 +2351,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Sim</t>
     </r>
@@ -2154,6 +2361,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>ROBERTO TRIPOLI</t>
     </r>
@@ -2163,6 +2371,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>PV</t>
     </r>
@@ -2172,6 +2381,7 @@
       <rPr>
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Obstrucao</t>
     </r>
@@ -2180,18 +2390,6 @@
     <t>DAVI ZAIA</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>RITA PASSOS</t>
-    </r>
-  </si>
-  <si>
     <t>MARTA COSTA</t>
   </si>
   <si>
@@ -2201,12 +2399,6 @@
     <t>Obstrucao</t>
   </si>
   <si>
-    <t>Voto</t>
-  </si>
-  <si>
-    <t>Parlamentar</t>
-  </si>
-  <si>
     <t>CLELIA GOMES</t>
   </si>
   <si>
@@ -2270,9 +2462,6 @@
     <t>CARLOS GIANNAZI</t>
   </si>
   <si>
-    <t>Partido</t>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
@@ -2282,17 +2471,53 @@
     <t>Sigla</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
+    <t>RITA PASSOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELSO B. NASCIMENTO </t>
+  </si>
+  <si>
+    <t>CORONEL CAMILO</t>
+  </si>
+  <si>
+    <t>REINALDO ALGUZ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Parlamentar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Partido Partido</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Voto</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2302,14 +2527,28 @@
     <font>
       <sz val="11.5"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -2352,7 +2591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2371,6 +2610,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2672,2209 +2917,1640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="54.28515625" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>247</v>
+        <v>65</v>
       </c>
       <c r="C2" s="5">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
       <c r="B3" s="5" t="s">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="C3" s="5">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="G3" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="5">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="C5" s="5">
         <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="7">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="7">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" s="5">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="5">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="5">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="7">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="5">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="7">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="7">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="7">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="5">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="7">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="7">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="7">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="7">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="7">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="7">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="5">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="5">
+        <v>55</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="7">
+        <v>43</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="5">
+        <v>70</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C29" s="5">
+        <v>55</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="5">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="5">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="5">
+        <v>11</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="7">
+        <v>43</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="5">
+        <v>40</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="5">
+        <v>25</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E35" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="7">
+        <v>43</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="7">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="5">
+        <v>25</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="5">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="5">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="4">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="5">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="4">
-        <v>7</v>
-      </c>
-      <c r="G8" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="5">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="4">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="5">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="4">
-        <v>9</v>
-      </c>
-      <c r="G10" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="5">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" s="5">
+        <v>44</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>38</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="7">
+        <v>45</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="4">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="5">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="4">
-        <v>11</v>
-      </c>
-      <c r="G12" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="5">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="4">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="5">
-        <v>51</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E40" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="5">
+        <v>23</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>40</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="7">
         <v>13</v>
       </c>
-      <c r="G14" s="5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="5">
-        <v>65</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="4">
-        <v>14</v>
-      </c>
-      <c r="G15" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C16" s="5">
-        <v>65</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="4">
-        <v>15</v>
-      </c>
-      <c r="G16" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C17" s="5">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F17" s="4">
-        <v>16</v>
-      </c>
-      <c r="G17" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="5">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F18" s="4">
-        <v>17</v>
-      </c>
-      <c r="G18" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="5">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F19" s="4">
-        <v>18</v>
-      </c>
-      <c r="G19" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="5">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F20" s="4">
-        <v>19</v>
-      </c>
-      <c r="G20" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="5">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="4">
-        <v>20</v>
-      </c>
-      <c r="G21" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="5">
-        <v>23</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F22" s="4">
-        <v>21</v>
-      </c>
-      <c r="G22" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="5">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F23" s="4">
-        <v>22</v>
-      </c>
-      <c r="G23" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="5">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F24" s="4">
-        <v>23</v>
-      </c>
-      <c r="G24" s="5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="5">
-        <v>22</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F25" s="4">
-        <v>24</v>
-      </c>
-      <c r="G25" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="5">
-        <v>22</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="4">
-        <v>25</v>
-      </c>
-      <c r="G26" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="5">
-        <v>22</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="4">
-        <v>26</v>
-      </c>
-      <c r="G27" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C28" s="5">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F28" s="4">
-        <v>27</v>
-      </c>
-      <c r="G28" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="5">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="4">
-        <v>28</v>
-      </c>
-      <c r="G29" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="5">
-        <v>10</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="4">
-        <v>29</v>
-      </c>
-      <c r="G30" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="5">
-        <v>10</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F31" s="4">
-        <v>30</v>
-      </c>
-      <c r="G31" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="5">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" s="4">
-        <v>31</v>
-      </c>
-      <c r="G32" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C33" s="5">
-        <v>90</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F33" s="4">
-        <v>32</v>
-      </c>
-      <c r="G33" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>32</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C34" s="5">
-        <v>44</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="4">
-        <v>33</v>
-      </c>
-      <c r="G34" s="5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>33</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="5">
-        <v>40</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F35" s="4">
-        <v>34</v>
-      </c>
-      <c r="G35" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="5">
-        <v>40</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F36" s="4">
-        <v>35</v>
-      </c>
-      <c r="G36" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="5">
-        <v>40</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F37" s="4">
-        <v>36</v>
-      </c>
-      <c r="G37" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" s="5">
-        <v>40</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F38" s="4">
-        <v>37</v>
-      </c>
-      <c r="G38" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C39" s="5">
-        <v>40</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F39" s="4">
-        <v>38</v>
-      </c>
-      <c r="G39" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>38</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="5">
-        <v>40</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F40" s="4">
-        <v>39</v>
-      </c>
-      <c r="G40" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>39</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="E42" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C41" s="5">
-        <v>40</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F41" s="4">
-        <v>40</v>
-      </c>
-      <c r="G41" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>40</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="5">
-        <v>40</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F42" s="4">
-        <v>41</v>
-      </c>
-      <c r="G42" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="C43" s="5">
         <v>40</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C44" s="5">
+        <v>90</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C45" s="5">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>44</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="7">
+        <v>45</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="5">
+        <v>65</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>46</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="7">
+        <v>45</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" s="5">
+        <v>15</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="5">
         <v>40</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F43" s="4">
-        <v>42</v>
-      </c>
-      <c r="G43" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>42</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="5">
-        <v>40</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F44" s="4">
-        <v>43</v>
-      </c>
-      <c r="G44" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>43</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="5">
-        <v>40</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F45" s="4">
-        <v>44</v>
-      </c>
-      <c r="G45" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>44</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="5">
-        <v>20</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F46" s="4">
-        <v>45</v>
-      </c>
-      <c r="G46" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>45</v>
-      </c>
-      <c r="B47" s="5" t="s">
+      <c r="D50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="7">
+        <v>50</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="5">
+        <v>15</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="5">
+        <v>15</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="5">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="7">
+        <v>13</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>54</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="7">
+        <v>13</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C57" s="5">
+        <v>65</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="5">
+        <v>15</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>57</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C59" s="7">
+        <v>14</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="5">
-        <v>55</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F47" s="4">
-        <v>46</v>
-      </c>
-      <c r="G47" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>46</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="5">
-        <v>55</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F48" s="4">
-        <v>47</v>
-      </c>
-      <c r="G48" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>47</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C49" s="5">
-        <v>55</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F49" s="4">
-        <v>48</v>
-      </c>
-      <c r="G49" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>48</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C50" s="5">
-        <v>55</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F50" s="4">
-        <v>49</v>
-      </c>
-      <c r="G50" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>49</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="7">
-        <v>45</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F51" s="4">
-        <v>50</v>
-      </c>
-      <c r="G51" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>50</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="7">
-        <v>45</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="4">
-        <v>51</v>
-      </c>
-      <c r="G52" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>51</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="7">
-        <v>45</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53" s="4">
-        <v>52</v>
-      </c>
-      <c r="G53" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>52</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="7">
-        <v>45</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="4">
-        <v>53</v>
-      </c>
-      <c r="G54" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>53</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="7">
-        <v>45</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" s="4">
-        <v>54</v>
-      </c>
-      <c r="G55" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>54</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="7">
-        <v>45</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" s="4">
-        <v>55</v>
-      </c>
-      <c r="G56" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>55</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="7">
-        <v>45</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="4">
-        <v>56</v>
-      </c>
-      <c r="G57" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>56</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="7">
-        <v>45</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" s="4">
-        <v>57</v>
-      </c>
-      <c r="G58" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>57</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="7">
-        <v>45</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F59" s="4">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
         <v>58</v>
       </c>
-      <c r="G59" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>58</v>
-      </c>
       <c r="B60" s="7" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="C60" s="7">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>59</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="7">
+        <v>13</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>60</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="7">
+        <v>13</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" s="4">
-        <v>59</v>
-      </c>
-      <c r="G60" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>59</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="7">
-        <v>45</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F61" s="4">
-        <v>60</v>
-      </c>
-      <c r="G61" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>60</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="7">
-        <v>45</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" s="4">
-        <v>61</v>
-      </c>
-      <c r="G62" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>61</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="C63" s="7">
         <v>45</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F63" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
         <v>62</v>
       </c>
-      <c r="G63" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>62</v>
-      </c>
       <c r="B64" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C64" s="7">
         <v>45</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F64" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
         <v>63</v>
       </c>
-      <c r="G64" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>63</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="7">
-        <v>45</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>131</v>
+      <c r="B65" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="5">
+        <v>22</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F65" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
         <v>64</v>
       </c>
-      <c r="G65" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>64</v>
-      </c>
       <c r="B66" s="7" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="C66" s="7">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F66" s="4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
         <v>65</v>
       </c>
-      <c r="G66" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>65</v>
-      </c>
       <c r="B67" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C67" s="7">
         <v>45</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F67" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
         <v>66</v>
       </c>
-      <c r="G67" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>66</v>
-      </c>
       <c r="B68" s="7" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="C68" s="7">
         <v>45</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F68" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
         <v>67</v>
       </c>
-      <c r="G68" s="7">
+      <c r="B69" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" s="5">
+        <v>55</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="5">
+        <v>25</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="5">
+        <v>10</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="5">
+        <v>40</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" s="5">
+        <v>51</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" s="5">
+        <v>19</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>73</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="7">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>67</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" s="7">
-        <v>45</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F69" s="4">
-        <v>68</v>
-      </c>
-      <c r="G69" s="7">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>68</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C70" s="7">
-        <v>50</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F70" s="4">
-        <v>69</v>
-      </c>
-      <c r="G70" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>69</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="7">
-        <v>50</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F71" s="4">
-        <v>70</v>
-      </c>
-      <c r="G71" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>70</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" s="7">
-        <v>50</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F72" s="4">
-        <v>71</v>
-      </c>
-      <c r="G72" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>71</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C73" s="7">
-        <v>13</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F73" s="4">
-        <v>72</v>
-      </c>
-      <c r="G73" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>72</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C74" s="7">
-        <v>13</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F74" s="4">
-        <v>73</v>
-      </c>
-      <c r="G74" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>73</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C75" s="7">
-        <v>13</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F75" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
         <v>74</v>
       </c>
-      <c r="G75" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <v>74</v>
-      </c>
       <c r="B76" s="7" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="C76" s="7">
         <v>13</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F76" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
         <v>75</v>
       </c>
-      <c r="G76" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
-        <v>75</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C77" s="7">
-        <v>13</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>170</v>
+      <c r="B77" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="5">
+        <v>40</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F77" s="4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
         <v>76</v>
       </c>
-      <c r="G77" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
-        <v>76</v>
-      </c>
       <c r="B78" s="7" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="C78" s="7">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F78" s="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
         <v>77</v>
       </c>
-      <c r="G78" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>77</v>
-      </c>
       <c r="B79" s="7" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="C79" s="7">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F79" s="4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
         <v>78</v>
       </c>
-      <c r="G79" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>78</v>
-      </c>
       <c r="B80" s="7" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="C80" s="7">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F80" s="4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
         <v>79</v>
       </c>
-      <c r="G80" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
-        <v>79</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C81" s="7">
-        <v>13</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>185</v>
+      <c r="B81" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="5">
+        <v>22</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F81" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
         <v>80</v>
       </c>
-      <c r="G81" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <v>80</v>
-      </c>
       <c r="B82" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C82" s="7">
-        <v>13</v>
+        <v>265</v>
+      </c>
+      <c r="C82" s="5">
+        <v>55</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F82" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
         <v>81</v>
       </c>
-      <c r="G82" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
-        <v>81</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C83" s="7">
-        <v>13</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>193</v>
+      <c r="B83" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="5">
+        <v>40</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F83" s="4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
         <v>82</v>
       </c>
-      <c r="G83" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
-        <v>82</v>
-      </c>
       <c r="B84" s="7" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="C84" s="7">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F84" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
         <v>83</v>
       </c>
-      <c r="G84" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
-        <v>83</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C85" s="7">
-        <v>13</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F85" s="4">
+      <c r="B85" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" s="5">
+        <v>23</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
         <v>84</v>
       </c>
-      <c r="G85" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
-        <v>84</v>
-      </c>
       <c r="B86" s="7" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="C86" s="7">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F86" s="4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
         <v>85</v>
       </c>
-      <c r="G86" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
-        <v>85</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C87" s="7">
-        <v>14</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>208</v>
+      <c r="B87" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" s="5">
+        <v>25</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F87" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
         <v>86</v>
       </c>
-      <c r="G87" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
-        <v>86</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C88" s="7">
-        <v>14</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="B88" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" s="5">
+        <v>25</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>87</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F88" s="4">
-        <v>87</v>
-      </c>
-      <c r="G88" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
-        <v>87</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="C89" s="7">
         <v>14</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F89" s="4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
         <v>88</v>
       </c>
-      <c r="G89" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
-        <v>88</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C90" s="7">
-        <v>43</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>218</v>
+      <c r="B90" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" s="5">
+        <v>10</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F90" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
         <v>89</v>
       </c>
-      <c r="G90" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
-        <v>89</v>
-      </c>
       <c r="B91" s="7" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C91" s="7">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F91" s="4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
         <v>90</v>
       </c>
-      <c r="G91" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <v>90</v>
-      </c>
       <c r="B92" s="7" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="C92" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F92" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
         <v>91</v>
       </c>
-      <c r="G92" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
-        <v>91</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C93" s="7">
-        <v>43</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F93" s="4">
+      <c r="B93" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="5">
+        <v>23</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
         <v>92</v>
       </c>
-      <c r="G93" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
-        <v>92</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C94" s="7">
-        <v>43</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>234</v>
+      <c r="B94" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="5">
+        <v>10</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F94" s="4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
         <v>93</v>
       </c>
-      <c r="G94" s="7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
-        <v>93</v>
-      </c>
       <c r="B95" s="7" t="s">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="C95" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F95" s="4">
-        <v>94</v>
-      </c>
-      <c r="G95" s="7">
-        <v>43</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A3:E95">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
